--- a/TestData/Guru99InsuranceTestDataSheet.xlsx
+++ b/TestData/Guru99InsuranceTestDataSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\eclipse_workspace\Guru99Insurance\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4081B4CE-DE49-497A-97F9-F75E77D826D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E06511-87FD-4578-84E2-6416BA489E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11304" yWindow="2280" windowWidth="10728" windowHeight="7776" xr2:uid="{2B475374-B4F9-4361-A489-CD31AB1690CD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2B475374-B4F9-4361-A489-CD31AB1690CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>S.No</t>
   </si>
@@ -37,15 +37,6 @@
     <t>Testcase_Name</t>
   </si>
   <si>
-    <t>TC_001_Insurance_Register</t>
-  </si>
-  <si>
-    <t>Title:=Mr</t>
-  </si>
-  <si>
-    <t>First name:=kanth</t>
-  </si>
-  <si>
     <t>Surname:=siri</t>
   </si>
   <si>
@@ -55,18 +46,6 @@
     <t>Dob_Y:=1993</t>
   </si>
   <si>
-    <t>Dob_M:=April</t>
-  </si>
-  <si>
-    <t>Dob_D:=09</t>
-  </si>
-  <si>
-    <t>Licence_Period:=2</t>
-  </si>
-  <si>
-    <t>Occupation:=Student</t>
-  </si>
-  <si>
     <t>Add_Street:=Warangal</t>
   </si>
   <si>
@@ -76,9 +55,6 @@
     <t>County:=India</t>
   </si>
   <si>
-    <t>Post code:=506001</t>
-  </si>
-  <si>
     <t>Email:=kanth12@gmail.com</t>
   </si>
   <si>
@@ -88,22 +64,70 @@
     <t>Confirmpassword:=kanth12</t>
   </si>
   <si>
-    <t>TC_002_Insurance_Register</t>
-  </si>
-  <si>
-    <t>TC_003_Insurance_Register</t>
-  </si>
-  <si>
-    <t>TC_004_Insurance_Register</t>
-  </si>
-  <si>
-    <t>TC_001_Insurance_Login</t>
-  </si>
-  <si>
     <t>Uname:=rahulsirimalla79@gmail.com</t>
   </si>
   <si>
     <t>Password:=kanth77</t>
+  </si>
+  <si>
+    <t>TC_001_Insurance_LoginPage</t>
+  </si>
+  <si>
+    <t>Firstname:=kanth</t>
+  </si>
+  <si>
+    <t>Postcode:=506001</t>
+  </si>
+  <si>
+    <t>TC_002_Guru99_Insurance_RegisterPage</t>
+  </si>
+  <si>
+    <t>TC_001_Guru99_Insurance_RegisterPage</t>
+  </si>
+  <si>
+    <t>Title:=Sir</t>
+  </si>
+  <si>
+    <t>Dob_M:=February</t>
+  </si>
+  <si>
+    <t>Dob_D:=9</t>
+  </si>
+  <si>
+    <t>Licence_Period:=9</t>
+  </si>
+  <si>
+    <t>Occupation:=Engineer</t>
+  </si>
+  <si>
+    <t>TC_001_Insurance_RequestQuotePage</t>
+  </si>
+  <si>
+    <t>Breakdowncover:=At home</t>
+  </si>
+  <si>
+    <t>incidents:=123</t>
+  </si>
+  <si>
+    <t>Registration:=456</t>
+  </si>
+  <si>
+    <t>Annualmileage:=55</t>
+  </si>
+  <si>
+    <t>Estimatedvalue:=4567</t>
+  </si>
+  <si>
+    <t>ParkingLocation:=Street/Road</t>
+  </si>
+  <si>
+    <t>DOY:=2019</t>
+  </si>
+  <si>
+    <t>DOM:=April</t>
+  </si>
+  <si>
+    <t>DOD:=4</t>
   </si>
 </sst>
 </file>
@@ -134,7 +158,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -142,11 +166,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -155,6 +194,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,22 +515,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F675BA-538E-4957-97E6-E3760C6343CF}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
@@ -509,55 +553,55 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -565,23 +609,17 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -694,12 +732,12 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -717,13 +755,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -733,12 +771,92 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BFBD39-6D5B-4631-9853-253489D14C35}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
